--- a/results.xlsx
+++ b/results.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>N</t>
   </si>
   <si>
     <t>Inversión</t>
+  </si>
+  <si>
+    <t>Número de combinaciones</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
   </si>
 </sst>
 </file>
@@ -351,50 +357,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>672000</v>
+        <v>543750</v>
+      </c>
+      <c r="C2">
+        <v>1216864</v>
+      </c>
+      <c r="D2">
+        <v>0.8605847883429888</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>528000</v>
+        <v>425000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>225000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6250</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,13 +382,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>543750</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1216864</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0.8605847883429888</v>
+        <v>8.178842312449395E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -396,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>425000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -404,15 +404,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>6250</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,13 +382,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>536250</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1143135</v>
       </c>
       <c r="D2">
-        <v>8.178842312449395E-05</v>
+        <v>0.8604814356706277</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -396,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>425000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -404,7 +404,15 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>218750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -382,13 +382,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>536250</v>
+        <v>543750</v>
       </c>
       <c r="C2">
-        <v>1143135</v>
+        <v>1216865</v>
       </c>
       <c r="D2">
-        <v>0.8604814356706277</v>
+        <v>0.8605847883429888</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -404,7 +404,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>218750</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -412,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20000</v>
+        <v>6250</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Channel</t>
+  </si>
   <si>
     <t>N</t>
   </si>
   <si>
     <t>Inversión</t>
+  </si>
+  <si>
+    <t>Televisión</t>
+  </si>
+  <si>
+    <t>Digital Video</t>
+  </si>
+  <si>
+    <t>Cine</t>
+  </si>
+  <si>
+    <t>BVOD</t>
   </si>
   <si>
     <t>Número de combinaciones</t>
@@ -357,13 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,45 +389,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>443750</v>
+      </c>
+      <c r="D2">
+        <v>1216864</v>
+      </c>
+      <c r="E2">
+        <v>0.8274212228066136</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>543750</v>
-      </c>
-      <c r="C2">
-        <v>1216864</v>
-      </c>
-      <c r="D2">
-        <v>0.8605847883429888</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>525000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>425000</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>231250</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>6250</v>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Channel</t>
+  </si>
   <si>
     <t>N</t>
   </si>
   <si>
     <t>Inversión</t>
+  </si>
+  <si>
+    <t>Digital Video</t>
+  </si>
+  <si>
+    <t>Televisión</t>
+  </si>
+  <si>
+    <t>Cine</t>
+  </si>
+  <si>
+    <t>BVOD</t>
   </si>
   <si>
     <t>Número de combinaciones</t>
@@ -357,13 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,45 +389,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1001000</v>
+      </c>
+      <c r="D2">
+        <v>18423</v>
+      </c>
+      <c r="E2">
+        <v>0.808303176677174</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>543750</v>
-      </c>
-      <c r="C2">
-        <v>1216865</v>
-      </c>
-      <c r="D2">
-        <v>0.8605847883429888</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>292500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>425000</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6500</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>6250</v>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -403,13 +403,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1001000</v>
+        <v>596400</v>
       </c>
       <c r="D2">
-        <v>18423</v>
+        <v>132766175</v>
       </c>
       <c r="E2">
-        <v>0.808303176677174</v>
+        <v>0.8163125826480894</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>292500</v>
+        <v>502800</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6500</v>
+        <v>91200</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9600</v>
       </c>
     </row>
   </sheetData>
